--- a/data/time_series/past_sc_cashflow_data.xlsx
+++ b/data/time_series/past_sc_cashflow_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVG9HXP\Documents\Projects\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63B4739-11F7-4BDC-B6B0-68B70A48CD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4648937-10DE-4C89-8F6B-FCC87DDE3C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="675" windowWidth="16095" windowHeight="14565" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="26370" windowHeight="15435" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
-    <sheet name="2020" sheetId="3" r:id="rId1"/>
+    <sheet name="2021" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/data/time_series/past_sc_cashflow_data.xlsx
+++ b/data/time_series/past_sc_cashflow_data.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4648937-10DE-4C89-8F6B-FCC87DDE3C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4EECF6-9D72-46F7-AB86-F2F624DA5679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="26370" windowHeight="15435" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="-57710" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
+    <sheet name="2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -52,13 +53,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,14 +94,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2 2" xfId="2" xr:uid="{AF651825-5FFC-463F-A70B-0243D085B517}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,17 +421,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48524F6-9DE1-4838-BA8A-ED91E8F33F77}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,11 +446,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44196</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>2262967</v>
       </c>
       <c r="C2">
@@ -438,7 +460,7 @@
         <v>844498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44561</v>
       </c>
@@ -452,7 +474,7 @@
         <v>3242738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44926</v>
       </c>
@@ -466,7 +488,7 @@
         <v>6373691</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45291</v>
       </c>
@@ -480,7 +502,7 @@
         <v>9531454</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45657</v>
       </c>
@@ -494,7 +516,7 @@
         <v>12695979</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>46022</v>
       </c>
@@ -508,7 +530,7 @@
         <v>15854398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>46387</v>
       </c>
@@ -522,7 +544,7 @@
         <v>18946787</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>46752</v>
       </c>
@@ -536,7 +558,7 @@
         <v>21941778</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>47118</v>
       </c>
@@ -550,7 +572,7 @@
         <v>24829948</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>47483</v>
       </c>
@@ -564,7 +586,7 @@
         <v>27613952</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>47848</v>
       </c>
@@ -578,7 +600,7 @@
         <v>30299490</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>48213</v>
       </c>
@@ -592,7 +614,7 @@
         <v>32891189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>48579</v>
       </c>
@@ -606,7 +628,7 @@
         <v>35383253</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>48944</v>
       </c>
@@ -620,7 +642,7 @@
         <v>37760033</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>49309</v>
       </c>
@@ -634,7 +656,7 @@
         <v>39999325</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>49674</v>
       </c>
@@ -648,7 +670,7 @@
         <v>42110508</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>50040</v>
       </c>
@@ -662,7 +684,7 @@
         <v>44113258</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>50405</v>
       </c>
@@ -676,7 +698,7 @@
         <v>46023885</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>50770</v>
       </c>
@@ -690,7 +712,7 @@
         <v>47846268</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>51135</v>
       </c>
@@ -704,7 +726,7 @@
         <v>49571785</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>51501</v>
       </c>
@@ -718,7 +740,7 @@
         <v>51173530</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>51866</v>
       </c>
@@ -732,7 +754,7 @@
         <v>52631011</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>52231</v>
       </c>
@@ -746,7 +768,7 @@
         <v>53954831</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52596</v>
       </c>
@@ -760,7 +782,7 @@
         <v>55161957</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>52962</v>
       </c>
@@ -774,7 +796,7 @@
         <v>56229111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>53327</v>
       </c>
@@ -788,7 +810,7 @@
         <v>57132067</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>53692</v>
       </c>
@@ -802,7 +824,7 @@
         <v>57877426</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>54057</v>
       </c>
@@ -816,7 +838,7 @@
         <v>58444895</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>54423</v>
       </c>
@@ -830,7 +852,7 @@
         <v>58833615</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>54788</v>
       </c>
@@ -844,7 +866,7 @@
         <v>59050742</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>55153</v>
       </c>
@@ -858,7 +880,7 @@
         <v>59058495</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>55518</v>
       </c>
@@ -872,7 +894,7 @@
         <v>58834563</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>55884</v>
       </c>
@@ -886,7 +908,7 @@
         <v>58381429</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>56249</v>
       </c>
@@ -900,7 +922,7 @@
         <v>57698976</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>56614</v>
       </c>
@@ -914,7 +936,7 @@
         <v>56783953</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>56979</v>
       </c>
@@ -928,7 +950,7 @@
         <v>55635174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>57345</v>
       </c>
@@ -942,7 +964,7 @@
         <v>54248015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>57710</v>
       </c>
@@ -956,7 +978,7 @@
         <v>52628655</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>58075</v>
       </c>
@@ -970,7 +992,7 @@
         <v>50841573</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>58440</v>
       </c>
@@ -984,7 +1006,7 @@
         <v>48939407</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>58806</v>
       </c>
@@ -998,7 +1020,7 @@
         <v>46942095</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>59171</v>
       </c>
@@ -1012,7 +1034,7 @@
         <v>44868835</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>59536</v>
       </c>
@@ -1026,7 +1048,7 @@
         <v>42737223</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>59901</v>
       </c>
@@ -1040,7 +1062,7 @@
         <v>40576585</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>60267</v>
       </c>
@@ -1054,7 +1076,7 @@
         <v>38413794</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>60632</v>
       </c>
@@ -1068,7 +1090,7 @@
         <v>36266513</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>60997</v>
       </c>
@@ -1082,7 +1104,7 @@
         <v>34148051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>61362</v>
       </c>
@@ -1096,7 +1118,7 @@
         <v>32068501</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>61728</v>
       </c>
@@ -1110,7 +1132,7 @@
         <v>30033023</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>62093</v>
       </c>
@@ -1124,7 +1146,7 @@
         <v>28045994</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>62458</v>
       </c>
@@ -1138,7 +1160,7 @@
         <v>26116111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>62823</v>
       </c>
@@ -1152,7 +1174,7 @@
         <v>24249159</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>63189</v>
       </c>
@@ -1166,7 +1188,7 @@
         <v>22446332</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>63554</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>20708857</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>63919</v>
       </c>
@@ -1194,7 +1216,7 @@
         <v>19038002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>64284</v>
       </c>
@@ -1208,7 +1230,7 @@
         <v>17434799</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>64650</v>
       </c>
@@ -1222,7 +1244,7 @@
         <v>15900373</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>65015</v>
       </c>
@@ -1236,7 +1258,7 @@
         <v>14436074</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>65380</v>
       </c>
@@ -1250,7 +1272,7 @@
         <v>13043266</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>65745</v>
       </c>
@@ -1264,7 +1286,7 @@
         <v>11723359</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>66111</v>
       </c>
@@ -1278,7 +1300,7 @@
         <v>10477702</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>66476</v>
       </c>
@@ -1292,7 +1314,7 @@
         <v>9307546</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>66841</v>
       </c>
@@ -1306,7 +1328,7 @@
         <v>8214017</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>67206</v>
       </c>
@@ -1320,7 +1342,7 @@
         <v>7197982</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>67572</v>
       </c>
@@ -1334,7 +1356,7 @@
         <v>6259953</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>67937</v>
       </c>
@@ -1348,7 +1370,7 @@
         <v>5400034</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>68302</v>
       </c>
@@ -1362,7 +1384,7 @@
         <v>4617870</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68667</v>
       </c>
@@ -1376,7 +1398,7 @@
         <v>3912530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69033</v>
       </c>
@@ -1390,7 +1412,7 @@
         <v>3282429</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69398</v>
       </c>
@@ -1404,7 +1426,7 @@
         <v>2725275</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>69763</v>
       </c>
@@ -1418,7 +1440,7 @@
         <v>2237963</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>70128</v>
       </c>
@@ -1432,7 +1454,7 @@
         <v>1816563</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>70494</v>
       </c>
@@ -1446,7 +1468,7 @@
         <v>1456474</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>70859</v>
       </c>
@@ -1460,7 +1482,7 @@
         <v>1152561</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>71224</v>
       </c>
@@ -1474,7 +1496,7 @@
         <v>899351</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>71589</v>
       </c>
@@ -1488,7 +1510,7 @@
         <v>691304</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>71955</v>
       </c>
@@ -1502,7 +1524,7 @@
         <v>522962</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>72320</v>
       </c>
@@ -1516,7 +1538,7 @@
         <v>388956</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>72685</v>
       </c>
@@ -1530,7 +1552,7 @@
         <v>284139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>73050</v>
       </c>
@@ -1542,6 +1564,1158 @@
       </c>
       <c r="D81">
         <v>203671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA8073-4086-42C8-B404-E0F39423CB22}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B2">
+        <v>1480324.2242113794</v>
+      </c>
+      <c r="C2">
+        <v>151542.48964270126</v>
+      </c>
+      <c r="D2">
+        <v>853507.28582016868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B3">
+        <v>4293848.9963713167</v>
+      </c>
+      <c r="C3">
+        <v>637893.46071151469</v>
+      </c>
+      <c r="D3">
+        <v>3257449.0224890145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B4">
+        <v>6250301.123915934</v>
+      </c>
+      <c r="C4">
+        <v>1364554.9920054036</v>
+      </c>
+      <c r="D4">
+        <v>6362006.883028524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B5">
+        <v>8255049.3938409537</v>
+      </c>
+      <c r="C5">
+        <v>2184632.6095532193</v>
+      </c>
+      <c r="D5">
+        <v>9494575.7567297313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B6">
+        <v>10381431.015817547</v>
+      </c>
+      <c r="C6">
+        <v>3092235.2306645936</v>
+      </c>
+      <c r="D6">
+        <v>12675105.103187175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B7">
+        <v>12468679.159448257</v>
+      </c>
+      <c r="C7">
+        <v>4048521.5742307245</v>
+      </c>
+      <c r="D7">
+        <v>15830626.075603152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B8">
+        <v>14510734.540319595</v>
+      </c>
+      <c r="C8">
+        <v>5009412.0818245653</v>
+      </c>
+      <c r="D8">
+        <v>18885035.388521247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B9">
+        <v>16421348.350879114</v>
+      </c>
+      <c r="C9">
+        <v>5973902.2814260796</v>
+      </c>
+      <c r="D9">
+        <v>21832458.516819932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B10">
+        <v>18213902.233152557</v>
+      </c>
+      <c r="C10">
+        <v>6931660.0427241577</v>
+      </c>
+      <c r="D10">
+        <v>24681967.311602328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B11">
+        <v>19988908.498620246</v>
+      </c>
+      <c r="C11">
+        <v>7885857.5997140491</v>
+      </c>
+      <c r="D11">
+        <v>27444356.326740008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B12">
+        <v>21694750.859167647</v>
+      </c>
+      <c r="C12">
+        <v>8830605.4775795564</v>
+      </c>
+      <c r="D12">
+        <v>30119575.722258911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B13">
+        <v>23342197.322482944</v>
+      </c>
+      <c r="C13">
+        <v>9744476.111208722</v>
+      </c>
+      <c r="D13">
+        <v>32708480.127799407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B14">
+        <v>24839304.334838618</v>
+      </c>
+      <c r="C14">
+        <v>10617709.88625619</v>
+      </c>
+      <c r="D14">
+        <v>35190409.831031986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B15">
+        <v>26159309.899691425</v>
+      </c>
+      <c r="C15">
+        <v>11456942.424841568</v>
+      </c>
+      <c r="D15">
+        <v>37541587.01752907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B16">
+        <v>27541802.855674695</v>
+      </c>
+      <c r="C16">
+        <v>12263050.863420643</v>
+      </c>
+      <c r="D16">
+        <v>39780960.034711972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B17">
+        <v>28663625.78265458</v>
+      </c>
+      <c r="C17">
+        <v>13032920.820406914</v>
+      </c>
+      <c r="D17">
+        <v>41929905.526509926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B18">
+        <v>29624272.753358331</v>
+      </c>
+      <c r="C18">
+        <v>13772547.003720837</v>
+      </c>
+      <c r="D18">
+        <v>43991417.091912232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B19">
+        <v>30571984.938739978</v>
+      </c>
+      <c r="C19">
+        <v>14483340.795611482</v>
+      </c>
+      <c r="D19">
+        <v>45972334.145702273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B20">
+        <v>31449101.197673738</v>
+      </c>
+      <c r="C20">
+        <v>15180895.092506493</v>
+      </c>
+      <c r="D20">
+        <v>47878551.280887984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B21">
+        <v>32082190.115630936</v>
+      </c>
+      <c r="C21">
+        <v>15872676.626797147</v>
+      </c>
+      <c r="D21">
+        <v>49688877.118642777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B22">
+        <v>32466828.128840819</v>
+      </c>
+      <c r="C22">
+        <v>16554119.549562899</v>
+      </c>
+      <c r="D22">
+        <v>51370824.041904785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B23">
+        <v>32863528.714063067</v>
+      </c>
+      <c r="C23">
+        <v>17230708.401595533</v>
+      </c>
+      <c r="D23">
+        <v>52920128.813968949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B24">
+        <v>33271445.956951413</v>
+      </c>
+      <c r="C24">
+        <v>17895388.289553553</v>
+      </c>
+      <c r="D24">
+        <v>54364576.493288949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B25">
+        <v>33414888.481506739</v>
+      </c>
+      <c r="C25">
+        <v>18517954.886238046</v>
+      </c>
+      <c r="D25">
+        <v>55690624.237227231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B26">
+        <v>33329289.380176775</v>
+      </c>
+      <c r="C26">
+        <v>19091146.451081488</v>
+      </c>
+      <c r="D26">
+        <v>56870661.085454665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B27">
+        <v>33296628.442636512</v>
+      </c>
+      <c r="C27">
+        <v>19620356.494179282</v>
+      </c>
+      <c r="D27">
+        <v>57901126.505298585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B28">
+        <v>32909262.32598212</v>
+      </c>
+      <c r="C28">
+        <v>20093583.240090195</v>
+      </c>
+      <c r="D28">
+        <v>58764914.32565318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B29">
+        <v>32393279.247077141</v>
+      </c>
+      <c r="C29">
+        <v>20522452.530372437</v>
+      </c>
+      <c r="D29">
+        <v>59466380.726221606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B30">
+        <v>31598504.885900326</v>
+      </c>
+      <c r="C30">
+        <v>20916694.573058076</v>
+      </c>
+      <c r="D30">
+        <v>59996396.29226508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B31">
+        <v>30417478.432316311</v>
+      </c>
+      <c r="C31">
+        <v>21265439.918048091</v>
+      </c>
+      <c r="D31">
+        <v>60316347.911723316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B32">
+        <v>29340673.357677847</v>
+      </c>
+      <c r="C32">
+        <v>21551864.035802167</v>
+      </c>
+      <c r="D32">
+        <v>60408409.542703725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B33">
+        <v>27821714.537479665</v>
+      </c>
+      <c r="C33">
+        <v>21775329.137692936</v>
+      </c>
+      <c r="D33">
+        <v>60260587.801319174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B34">
+        <v>26238701.977424517</v>
+      </c>
+      <c r="C34">
+        <v>21971608.712901954</v>
+      </c>
+      <c r="D34">
+        <v>59872939.297520421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B35">
+        <v>24550017.743211832</v>
+      </c>
+      <c r="C35">
+        <v>22156949.770969369</v>
+      </c>
+      <c r="D35">
+        <v>59238695.265142344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B36">
+        <v>22782570.624601971</v>
+      </c>
+      <c r="C36">
+        <v>22333728.214657489</v>
+      </c>
+      <c r="D36">
+        <v>58351544.334336862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B37">
+        <v>21084668.523620632</v>
+      </c>
+      <c r="C37">
+        <v>22502829.569036476</v>
+      </c>
+      <c r="D37">
+        <v>57220748.625263482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B38">
+        <v>19508019.708151761</v>
+      </c>
+      <c r="C38">
+        <v>22678729.438879482</v>
+      </c>
+      <c r="D38">
+        <v>55828758.66093234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B39">
+        <v>18132405.468249068</v>
+      </c>
+      <c r="C39">
+        <v>22896535.992083035</v>
+      </c>
+      <c r="D39">
+        <v>54196650.311278656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B40">
+        <v>16755665.273748156</v>
+      </c>
+      <c r="C40">
+        <v>23127980.753175564</v>
+      </c>
+      <c r="D40">
+        <v>52397224.67017214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B41">
+        <v>15426787.591633705</v>
+      </c>
+      <c r="C41">
+        <v>23126147.8848808</v>
+      </c>
+      <c r="D41">
+        <v>50476353.423770569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B42">
+        <v>14145876.529691121</v>
+      </c>
+      <c r="C42">
+        <v>22868412.228984956</v>
+      </c>
+      <c r="D42">
+        <v>48451544.969263151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B43">
+        <v>12919852.84271335</v>
+      </c>
+      <c r="C43">
+        <v>22624779.604495782</v>
+      </c>
+      <c r="D43">
+        <v>46340765.000131123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B44">
+        <v>11750814.934607655</v>
+      </c>
+      <c r="C44">
+        <v>22494908.318431042</v>
+      </c>
+      <c r="D44">
+        <v>44172335.55584649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B45">
+        <v>10639766.985764632</v>
+      </c>
+      <c r="C45">
+        <v>22172745.674838468</v>
+      </c>
+      <c r="D45">
+        <v>41975845.765347295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B46">
+        <v>9586917.3109616376</v>
+      </c>
+      <c r="C46">
+        <v>21442606.083639815</v>
+      </c>
+      <c r="D46">
+        <v>39774557.724725142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B47">
+        <v>8594509.4848421384</v>
+      </c>
+      <c r="C47">
+        <v>20560953.138471838</v>
+      </c>
+      <c r="D47">
+        <v>37587076.486660495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B48">
+        <v>7664257.3635288971</v>
+      </c>
+      <c r="C48">
+        <v>19678556.509796891</v>
+      </c>
+      <c r="D48">
+        <v>35426194.380697556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B49">
+        <v>6795249.3375787586</v>
+      </c>
+      <c r="C49">
+        <v>18796646.730154343</v>
+      </c>
+      <c r="D49">
+        <v>33300674.862129819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B50">
+        <v>5988315.8038331578</v>
+      </c>
+      <c r="C50">
+        <v>17915803.031242851</v>
+      </c>
+      <c r="D50">
+        <v>31215161.836576086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B51">
+        <v>5243532.875479023</v>
+      </c>
+      <c r="C51">
+        <v>17037154.293036271</v>
+      </c>
+      <c r="D51">
+        <v>29176454.786744218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B52">
+        <v>4560402.3294574358</v>
+      </c>
+      <c r="C52">
+        <v>16162614.783221126</v>
+      </c>
+      <c r="D52">
+        <v>27193199.561300345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B53">
+        <v>3937869.7548964536</v>
+      </c>
+      <c r="C53">
+        <v>15293580.748972112</v>
+      </c>
+      <c r="D53">
+        <v>25270062.080512874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B54">
+        <v>3374463.1535093179</v>
+      </c>
+      <c r="C54">
+        <v>14431269.700461941</v>
+      </c>
+      <c r="D54">
+        <v>23408630.367384732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B55">
+        <v>2868292.1742316415</v>
+      </c>
+      <c r="C55">
+        <v>13577025.786435066</v>
+      </c>
+      <c r="D55">
+        <v>21610641.685887225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B56">
+        <v>2417084.1653964114</v>
+      </c>
+      <c r="C56">
+        <v>12732317.709305668</v>
+      </c>
+      <c r="D56">
+        <v>19877734.39074285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B57">
+        <v>2018206.8440550747</v>
+      </c>
+      <c r="C57">
+        <v>11898771.699779557</v>
+      </c>
+      <c r="D57">
+        <v>18211438.843848299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B58">
+        <v>1668729.3971972333</v>
+      </c>
+      <c r="C58">
+        <v>11078149.119256608</v>
+      </c>
+      <c r="D58">
+        <v>16613456.139895046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B59">
+        <v>1365457.5302280213</v>
+      </c>
+      <c r="C59">
+        <v>10272330.594848743</v>
+      </c>
+      <c r="D59">
+        <v>15085669.45342824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B60">
+        <v>1105002.8512951622</v>
+      </c>
+      <c r="C60">
+        <v>9483344.2336123362</v>
+      </c>
+      <c r="D60">
+        <v>13630066.005969351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B61">
+        <v>883802.81156533805</v>
+      </c>
+      <c r="C61">
+        <v>8713352.3920996934</v>
+      </c>
+      <c r="D61">
+        <v>12248632.918981988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B62">
+        <v>698145.4951142926</v>
+      </c>
+      <c r="C62">
+        <v>7964614.8022643244</v>
+      </c>
+      <c r="D62">
+        <v>10943296.157121336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B63">
+        <v>544275.02626118413</v>
+      </c>
+      <c r="C63">
+        <v>7239428.0390322534</v>
+      </c>
+      <c r="D63">
+        <v>9715927.320641119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B64">
+        <v>418457.96356672799</v>
+      </c>
+      <c r="C64">
+        <v>6540117.3703037761</v>
+      </c>
+      <c r="D64">
+        <v>8568177.0788843464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B65">
+        <v>317052.97833790135</v>
+      </c>
+      <c r="C65">
+        <v>5869035.2739286441</v>
+      </c>
+      <c r="D65">
+        <v>7501367.6877569137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B66">
+        <v>236575.38231801955</v>
+      </c>
+      <c r="C66">
+        <v>5228575.3997172499</v>
+      </c>
+      <c r="D66">
+        <v>6516411.0252691954</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B67">
+        <v>173731.67822681615</v>
+      </c>
+      <c r="C67">
+        <v>4621203.2402388593</v>
+      </c>
+      <c r="D67">
+        <v>5613737.3731370121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B68">
+        <v>125482.18286134882</v>
+      </c>
+      <c r="C68">
+        <v>4049378.8044801741</v>
+      </c>
+      <c r="D68">
+        <v>4793181.7741595935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B69">
+        <v>89088.003080575509</v>
+      </c>
+      <c r="C69">
+        <v>3515540.9959954969</v>
+      </c>
+      <c r="D69">
+        <v>4053910.0508217267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B70">
+        <v>62136.872388721065</v>
+      </c>
+      <c r="C70">
+        <v>3022020.7388938004</v>
+      </c>
+      <c r="D70">
+        <v>3394354.6205073437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B71">
+        <v>42556.714626449655</v>
+      </c>
+      <c r="C71">
+        <v>2570728.7250806666</v>
+      </c>
+      <c r="D71">
+        <v>2812082.5552139655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B72">
+        <v>28609.924424328488</v>
+      </c>
+      <c r="C72">
+        <v>2162832.4570665834</v>
+      </c>
+      <c r="D72">
+        <v>2303717.901747026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B73">
+        <v>18873.381049655458</v>
+      </c>
+      <c r="C73">
+        <v>1798632.0951283562</v>
+      </c>
+      <c r="D73">
+        <v>1865008.7193233322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B74">
+        <v>12213.693350672356</v>
+      </c>
+      <c r="C74">
+        <v>1477520.2429071274</v>
+      </c>
+      <c r="D74">
+        <v>1490976.663464851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B75">
+        <v>7751.6989021656518</v>
+      </c>
+      <c r="C75">
+        <v>1197914.201882445</v>
+      </c>
+      <c r="D75">
+        <v>1176068.601249408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B76">
+        <v>4824.361586256573</v>
+      </c>
+      <c r="C76">
+        <v>957483.25418627926</v>
+      </c>
+      <c r="D76">
+        <v>914425.98314517189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B77">
+        <v>2944.1059782446609</v>
+      </c>
+      <c r="C77">
+        <v>753608.50839756418</v>
+      </c>
+      <c r="D77">
+        <v>700152.25580501626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B78">
+        <v>1762.0322934518504</v>
+      </c>
+      <c r="C78">
+        <v>583431.76099079091</v>
+      </c>
+      <c r="D78">
+        <v>527400.94828807283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B79">
+        <v>1034.4438227360313</v>
+      </c>
+      <c r="C79">
+        <v>443774.07097124361</v>
+      </c>
+      <c r="D79">
+        <v>390438.00132461288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B80">
+        <v>595.86459984165424</v>
+      </c>
+      <c r="C80">
+        <v>331239.29571562022</v>
+      </c>
+      <c r="D80">
+        <v>283781.92345908063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B81">
+        <v>336.86952569318998</v>
+      </c>
+      <c r="C81">
+        <v>242323.40159447814</v>
+      </c>
+      <c r="D81">
+        <v>202299.55102132255</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/past_sc_cashflow_data.xlsx
+++ b/data/time_series/past_sc_cashflow_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pforj\Documents\ups\UPS_MV\data\time_series\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4648937-10DE-4C89-8F6B-FCC87DDE3C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F1A5D7-57AB-44D7-8DEA-D16A559D9929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="26370" windowHeight="15435" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="-57710" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
+    <sheet name="2022" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -400,17 +401,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48524F6-9DE1-4838-BA8A-ED91E8F33F77}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D81"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44196</v>
       </c>
@@ -438,7 +439,7 @@
         <v>844498</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44561</v>
       </c>
@@ -452,7 +453,7 @@
         <v>3242738</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44926</v>
       </c>
@@ -466,7 +467,7 @@
         <v>6373691</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45291</v>
       </c>
@@ -480,7 +481,7 @@
         <v>9531454</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45657</v>
       </c>
@@ -494,7 +495,7 @@
         <v>12695979</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>46022</v>
       </c>
@@ -508,7 +509,7 @@
         <v>15854398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>46387</v>
       </c>
@@ -522,7 +523,7 @@
         <v>18946787</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>46752</v>
       </c>
@@ -536,7 +537,7 @@
         <v>21941778</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>47118</v>
       </c>
@@ -550,7 +551,7 @@
         <v>24829948</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>47483</v>
       </c>
@@ -564,7 +565,7 @@
         <v>27613952</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>47848</v>
       </c>
@@ -578,7 +579,7 @@
         <v>30299490</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>48213</v>
       </c>
@@ -592,7 +593,7 @@
         <v>32891189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>48579</v>
       </c>
@@ -606,7 +607,7 @@
         <v>35383253</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>48944</v>
       </c>
@@ -620,7 +621,7 @@
         <v>37760033</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>49309</v>
       </c>
@@ -634,7 +635,7 @@
         <v>39999325</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>49674</v>
       </c>
@@ -648,7 +649,7 @@
         <v>42110508</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>50040</v>
       </c>
@@ -662,7 +663,7 @@
         <v>44113258</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>50405</v>
       </c>
@@ -676,7 +677,7 @@
         <v>46023885</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>50770</v>
       </c>
@@ -690,7 +691,7 @@
         <v>47846268</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>51135</v>
       </c>
@@ -704,7 +705,7 @@
         <v>49571785</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>51501</v>
       </c>
@@ -718,7 +719,7 @@
         <v>51173530</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>51866</v>
       </c>
@@ -732,7 +733,7 @@
         <v>52631011</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>52231</v>
       </c>
@@ -746,7 +747,7 @@
         <v>53954831</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>52596</v>
       </c>
@@ -760,7 +761,7 @@
         <v>55161957</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>52962</v>
       </c>
@@ -774,7 +775,7 @@
         <v>56229111</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>53327</v>
       </c>
@@ -788,7 +789,7 @@
         <v>57132067</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>53692</v>
       </c>
@@ -802,7 +803,7 @@
         <v>57877426</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>54057</v>
       </c>
@@ -816,7 +817,7 @@
         <v>58444895</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>54423</v>
       </c>
@@ -830,7 +831,7 @@
         <v>58833615</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>54788</v>
       </c>
@@ -844,7 +845,7 @@
         <v>59050742</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>55153</v>
       </c>
@@ -858,7 +859,7 @@
         <v>59058495</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>55518</v>
       </c>
@@ -872,7 +873,7 @@
         <v>58834563</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>55884</v>
       </c>
@@ -886,7 +887,7 @@
         <v>58381429</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>56249</v>
       </c>
@@ -900,7 +901,7 @@
         <v>57698976</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>56614</v>
       </c>
@@ -914,7 +915,7 @@
         <v>56783953</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>56979</v>
       </c>
@@ -928,7 +929,7 @@
         <v>55635174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>57345</v>
       </c>
@@ -942,7 +943,7 @@
         <v>54248015</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>57710</v>
       </c>
@@ -956,7 +957,7 @@
         <v>52628655</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>58075</v>
       </c>
@@ -970,7 +971,7 @@
         <v>50841573</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>58440</v>
       </c>
@@ -984,7 +985,7 @@
         <v>48939407</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>58806</v>
       </c>
@@ -998,7 +999,7 @@
         <v>46942095</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>59171</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>44868835</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>59536</v>
       </c>
@@ -1026,7 +1027,7 @@
         <v>42737223</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>59901</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>40576585</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>60267</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>38413794</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>60632</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>36266513</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>60997</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>34148051</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>61362</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>32068501</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>61728</v>
       </c>
@@ -1110,7 +1111,7 @@
         <v>30033023</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>62093</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>28045994</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>62458</v>
       </c>
@@ -1138,7 +1139,7 @@
         <v>26116111</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>62823</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>24249159</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>63189</v>
       </c>
@@ -1166,7 +1167,7 @@
         <v>22446332</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>63554</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>20708857</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>63919</v>
       </c>
@@ -1194,7 +1195,7 @@
         <v>19038002</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>64284</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>17434799</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>64650</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>15900373</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>65015</v>
       </c>
@@ -1236,7 +1237,7 @@
         <v>14436074</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>65380</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>13043266</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>65745</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>11723359</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>66111</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>10477702</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>66476</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>9307546</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>66841</v>
       </c>
@@ -1306,7 +1307,7 @@
         <v>8214017</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>67206</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>7197982</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>67572</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>6259953</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>67937</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>5400034</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>68302</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>4617870</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68667</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>3912530</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69033</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>3282429</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>69398</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>2725275</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>69763</v>
       </c>
@@ -1418,7 +1419,7 @@
         <v>2237963</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>70128</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>1816563</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>70494</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>1456474</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>70859</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>1152561</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>71224</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>899351</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>71589</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>691304</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>71955</v>
       </c>
@@ -1502,7 +1503,7 @@
         <v>522962</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>72320</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>388956</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>72685</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>284139</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>73050</v>
       </c>
@@ -1542,6 +1543,1158 @@
       </c>
       <c r="D81">
         <v>203671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21FB959-515A-41AA-8F36-2039643218DD}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B2">
+        <v>1480324.2242113794</v>
+      </c>
+      <c r="C2">
+        <v>151542.48964270126</v>
+      </c>
+      <c r="D2">
+        <v>853507.28582016868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B3">
+        <v>4293848.9963713167</v>
+      </c>
+      <c r="C3">
+        <v>637893.46071151469</v>
+      </c>
+      <c r="D3">
+        <v>3257449.0224890145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B4">
+        <v>6250301.123915934</v>
+      </c>
+      <c r="C4">
+        <v>1364554.9920054036</v>
+      </c>
+      <c r="D4">
+        <v>6362006.883028524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B5">
+        <v>8255049.3938409537</v>
+      </c>
+      <c r="C5">
+        <v>2184632.6095532193</v>
+      </c>
+      <c r="D5">
+        <v>9494575.7567297313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B6">
+        <v>10381431.015817547</v>
+      </c>
+      <c r="C6">
+        <v>3092235.2306645936</v>
+      </c>
+      <c r="D6">
+        <v>12675105.103187175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B7">
+        <v>12468679.159448257</v>
+      </c>
+      <c r="C7">
+        <v>4048521.5742307245</v>
+      </c>
+      <c r="D7">
+        <v>15830626.075603152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B8">
+        <v>14510734.540319595</v>
+      </c>
+      <c r="C8">
+        <v>5009412.0818245653</v>
+      </c>
+      <c r="D8">
+        <v>18885035.388521247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B9">
+        <v>16421348.350879114</v>
+      </c>
+      <c r="C9">
+        <v>5973902.2814260796</v>
+      </c>
+      <c r="D9">
+        <v>21832458.516819932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B10">
+        <v>18213902.233152557</v>
+      </c>
+      <c r="C10">
+        <v>6931660.0427241577</v>
+      </c>
+      <c r="D10">
+        <v>24681967.311602328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B11">
+        <v>19988908.498620246</v>
+      </c>
+      <c r="C11">
+        <v>7885857.5997140491</v>
+      </c>
+      <c r="D11">
+        <v>27444356.326740008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B12">
+        <v>21694750.859167647</v>
+      </c>
+      <c r="C12">
+        <v>8830605.4775795564</v>
+      </c>
+      <c r="D12">
+        <v>30119575.722258911</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B13">
+        <v>23342197.322482944</v>
+      </c>
+      <c r="C13">
+        <v>9744476.111208722</v>
+      </c>
+      <c r="D13">
+        <v>32708480.127799407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B14">
+        <v>24839304.334838618</v>
+      </c>
+      <c r="C14">
+        <v>10617709.88625619</v>
+      </c>
+      <c r="D14">
+        <v>35190409.831031986</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B15">
+        <v>26159309.899691425</v>
+      </c>
+      <c r="C15">
+        <v>11456942.424841568</v>
+      </c>
+      <c r="D15">
+        <v>37541587.01752907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B16">
+        <v>27541802.855674695</v>
+      </c>
+      <c r="C16">
+        <v>12263050.863420643</v>
+      </c>
+      <c r="D16">
+        <v>39780960.034711972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B17">
+        <v>28663625.78265458</v>
+      </c>
+      <c r="C17">
+        <v>13032920.820406914</v>
+      </c>
+      <c r="D17">
+        <v>41929905.526509926</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B18">
+        <v>29624272.753358331</v>
+      </c>
+      <c r="C18">
+        <v>13772547.003720837</v>
+      </c>
+      <c r="D18">
+        <v>43991417.091912232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B19">
+        <v>30571984.938739978</v>
+      </c>
+      <c r="C19">
+        <v>14483340.795611482</v>
+      </c>
+      <c r="D19">
+        <v>45972334.145702273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B20">
+        <v>31449101.197673738</v>
+      </c>
+      <c r="C20">
+        <v>15180895.092506493</v>
+      </c>
+      <c r="D20">
+        <v>47878551.280887984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B21">
+        <v>32082190.115630936</v>
+      </c>
+      <c r="C21">
+        <v>15872676.626797147</v>
+      </c>
+      <c r="D21">
+        <v>49688877.118642777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B22">
+        <v>32466828.128840819</v>
+      </c>
+      <c r="C22">
+        <v>16554119.549562899</v>
+      </c>
+      <c r="D22">
+        <v>51370824.041904785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B23">
+        <v>32863528.714063067</v>
+      </c>
+      <c r="C23">
+        <v>17230708.401595533</v>
+      </c>
+      <c r="D23">
+        <v>52920128.813968949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B24">
+        <v>33271445.956951413</v>
+      </c>
+      <c r="C24">
+        <v>17895388.289553553</v>
+      </c>
+      <c r="D24">
+        <v>54364576.493288949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B25">
+        <v>33414888.481506739</v>
+      </c>
+      <c r="C25">
+        <v>18517954.886238046</v>
+      </c>
+      <c r="D25">
+        <v>55690624.237227231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B26">
+        <v>33329289.380176775</v>
+      </c>
+      <c r="C26">
+        <v>19091146.451081488</v>
+      </c>
+      <c r="D26">
+        <v>56870661.085454665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B27">
+        <v>33296628.442636512</v>
+      </c>
+      <c r="C27">
+        <v>19620356.494179282</v>
+      </c>
+      <c r="D27">
+        <v>57901126.505298585</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B28">
+        <v>32909262.32598212</v>
+      </c>
+      <c r="C28">
+        <v>20093583.240090195</v>
+      </c>
+      <c r="D28">
+        <v>58764914.32565318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B29">
+        <v>32393279.247077141</v>
+      </c>
+      <c r="C29">
+        <v>20522452.530372437</v>
+      </c>
+      <c r="D29">
+        <v>59466380.726221606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B30">
+        <v>31598504.885900326</v>
+      </c>
+      <c r="C30">
+        <v>20916694.573058076</v>
+      </c>
+      <c r="D30">
+        <v>59996396.29226508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B31">
+        <v>30417478.432316311</v>
+      </c>
+      <c r="C31">
+        <v>21265439.918048091</v>
+      </c>
+      <c r="D31">
+        <v>60316347.911723316</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B32">
+        <v>29340673.357677847</v>
+      </c>
+      <c r="C32">
+        <v>21551864.035802167</v>
+      </c>
+      <c r="D32">
+        <v>60408409.542703725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B33">
+        <v>27821714.537479665</v>
+      </c>
+      <c r="C33">
+        <v>21775329.137692936</v>
+      </c>
+      <c r="D33">
+        <v>60260587.801319174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B34">
+        <v>26238701.977424517</v>
+      </c>
+      <c r="C34">
+        <v>21971608.712901954</v>
+      </c>
+      <c r="D34">
+        <v>59872939.297520421</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B35">
+        <v>24550017.743211832</v>
+      </c>
+      <c r="C35">
+        <v>22156949.770969369</v>
+      </c>
+      <c r="D35">
+        <v>59238695.265142344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B36">
+        <v>22782570.624601971</v>
+      </c>
+      <c r="C36">
+        <v>22333728.214657489</v>
+      </c>
+      <c r="D36">
+        <v>58351544.334336862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B37">
+        <v>21084668.523620632</v>
+      </c>
+      <c r="C37">
+        <v>22502829.569036476</v>
+      </c>
+      <c r="D37">
+        <v>57220748.625263482</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B38">
+        <v>19508019.708151761</v>
+      </c>
+      <c r="C38">
+        <v>22678729.438879482</v>
+      </c>
+      <c r="D38">
+        <v>55828758.66093234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B39">
+        <v>18132405.468249068</v>
+      </c>
+      <c r="C39">
+        <v>22896535.992083035</v>
+      </c>
+      <c r="D39">
+        <v>54196650.311278656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B40">
+        <v>16755665.273748156</v>
+      </c>
+      <c r="C40">
+        <v>23127980.753175564</v>
+      </c>
+      <c r="D40">
+        <v>52397224.67017214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B41">
+        <v>15426787.591633705</v>
+      </c>
+      <c r="C41">
+        <v>23126147.8848808</v>
+      </c>
+      <c r="D41">
+        <v>50476353.423770569</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B42">
+        <v>14145876.529691121</v>
+      </c>
+      <c r="C42">
+        <v>22868412.228984956</v>
+      </c>
+      <c r="D42">
+        <v>48451544.969263151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B43">
+        <v>12919852.84271335</v>
+      </c>
+      <c r="C43">
+        <v>22624779.604495782</v>
+      </c>
+      <c r="D43">
+        <v>46340765.000131123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B44">
+        <v>11750814.934607655</v>
+      </c>
+      <c r="C44">
+        <v>22494908.318431042</v>
+      </c>
+      <c r="D44">
+        <v>44172335.55584649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B45">
+        <v>10639766.985764632</v>
+      </c>
+      <c r="C45">
+        <v>22172745.674838468</v>
+      </c>
+      <c r="D45">
+        <v>41975845.765347295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B46">
+        <v>9586917.3109616376</v>
+      </c>
+      <c r="C46">
+        <v>21442606.083639815</v>
+      </c>
+      <c r="D46">
+        <v>39774557.724725142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B47">
+        <v>8594509.4848421384</v>
+      </c>
+      <c r="C47">
+        <v>20560953.138471838</v>
+      </c>
+      <c r="D47">
+        <v>37587076.486660495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B48">
+        <v>7664257.3635288971</v>
+      </c>
+      <c r="C48">
+        <v>19678556.509796891</v>
+      </c>
+      <c r="D48">
+        <v>35426194.380697556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B49">
+        <v>6795249.3375787586</v>
+      </c>
+      <c r="C49">
+        <v>18796646.730154343</v>
+      </c>
+      <c r="D49">
+        <v>33300674.862129819</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B50">
+        <v>5988315.8038331578</v>
+      </c>
+      <c r="C50">
+        <v>17915803.031242851</v>
+      </c>
+      <c r="D50">
+        <v>31215161.836576086</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B51">
+        <v>5243532.875479023</v>
+      </c>
+      <c r="C51">
+        <v>17037154.293036271</v>
+      </c>
+      <c r="D51">
+        <v>29176454.786744218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B52">
+        <v>4560402.3294574358</v>
+      </c>
+      <c r="C52">
+        <v>16162614.783221126</v>
+      </c>
+      <c r="D52">
+        <v>27193199.561300345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B53">
+        <v>3937869.7548964536</v>
+      </c>
+      <c r="C53">
+        <v>15293580.748972112</v>
+      </c>
+      <c r="D53">
+        <v>25270062.080512874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B54">
+        <v>3374463.1535093179</v>
+      </c>
+      <c r="C54">
+        <v>14431269.700461941</v>
+      </c>
+      <c r="D54">
+        <v>23408630.367384732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B55">
+        <v>2868292.1742316415</v>
+      </c>
+      <c r="C55">
+        <v>13577025.786435066</v>
+      </c>
+      <c r="D55">
+        <v>21610641.685887225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B56">
+        <v>2417084.1653964114</v>
+      </c>
+      <c r="C56">
+        <v>12732317.709305668</v>
+      </c>
+      <c r="D56">
+        <v>19877734.39074285</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B57">
+        <v>2018206.8440550747</v>
+      </c>
+      <c r="C57">
+        <v>11898771.699779557</v>
+      </c>
+      <c r="D57">
+        <v>18211438.843848299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B58">
+        <v>1668729.3971972333</v>
+      </c>
+      <c r="C58">
+        <v>11078149.119256608</v>
+      </c>
+      <c r="D58">
+        <v>16613456.139895046</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B59">
+        <v>1365457.5302280213</v>
+      </c>
+      <c r="C59">
+        <v>10272330.594848743</v>
+      </c>
+      <c r="D59">
+        <v>15085669.45342824</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B60">
+        <v>1105002.8512951622</v>
+      </c>
+      <c r="C60">
+        <v>9483344.2336123362</v>
+      </c>
+      <c r="D60">
+        <v>13630066.005969351</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B61">
+        <v>883802.81156533805</v>
+      </c>
+      <c r="C61">
+        <v>8713352.3920996934</v>
+      </c>
+      <c r="D61">
+        <v>12248632.918981988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B62">
+        <v>698145.4951142926</v>
+      </c>
+      <c r="C62">
+        <v>7964614.8022643244</v>
+      </c>
+      <c r="D62">
+        <v>10943296.157121336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B63">
+        <v>544275.02626118413</v>
+      </c>
+      <c r="C63">
+        <v>7239428.0390322534</v>
+      </c>
+      <c r="D63">
+        <v>9715927.320641119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B64">
+        <v>418457.96356672799</v>
+      </c>
+      <c r="C64">
+        <v>6540117.3703037761</v>
+      </c>
+      <c r="D64">
+        <v>8568177.0788843464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B65">
+        <v>317052.97833790135</v>
+      </c>
+      <c r="C65">
+        <v>5869035.2739286441</v>
+      </c>
+      <c r="D65">
+        <v>7501367.6877569137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B66">
+        <v>236575.38231801955</v>
+      </c>
+      <c r="C66">
+        <v>5228575.3997172499</v>
+      </c>
+      <c r="D66">
+        <v>6516411.0252691954</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B67">
+        <v>173731.67822681615</v>
+      </c>
+      <c r="C67">
+        <v>4621203.2402388593</v>
+      </c>
+      <c r="D67">
+        <v>5613737.3731370121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B68">
+        <v>125482.18286134882</v>
+      </c>
+      <c r="C68">
+        <v>4049378.8044801741</v>
+      </c>
+      <c r="D68">
+        <v>4793181.7741595935</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B69">
+        <v>89088.003080575509</v>
+      </c>
+      <c r="C69">
+        <v>3515540.9959954969</v>
+      </c>
+      <c r="D69">
+        <v>4053910.0508217267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B70">
+        <v>62136.872388721065</v>
+      </c>
+      <c r="C70">
+        <v>3022020.7388938004</v>
+      </c>
+      <c r="D70">
+        <v>3394354.6205073437</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B71">
+        <v>42556.714626449655</v>
+      </c>
+      <c r="C71">
+        <v>2570728.7250806666</v>
+      </c>
+      <c r="D71">
+        <v>2812082.5552139655</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B72">
+        <v>28609.924424328488</v>
+      </c>
+      <c r="C72">
+        <v>2162832.4570665834</v>
+      </c>
+      <c r="D72">
+        <v>2303717.901747026</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B73">
+        <v>18873.381049655458</v>
+      </c>
+      <c r="C73">
+        <v>1798632.0951283562</v>
+      </c>
+      <c r="D73">
+        <v>1865008.7193233322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B74">
+        <v>12213.693350672356</v>
+      </c>
+      <c r="C74">
+        <v>1477520.2429071274</v>
+      </c>
+      <c r="D74">
+        <v>1490976.663464851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B75">
+        <v>7751.6989021656518</v>
+      </c>
+      <c r="C75">
+        <v>1197914.201882445</v>
+      </c>
+      <c r="D75">
+        <v>1176068.601249408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B76">
+        <v>4824.361586256573</v>
+      </c>
+      <c r="C76">
+        <v>957483.25418627926</v>
+      </c>
+      <c r="D76">
+        <v>914425.98314517189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B77">
+        <v>2944.1059782446609</v>
+      </c>
+      <c r="C77">
+        <v>753608.50839756418</v>
+      </c>
+      <c r="D77">
+        <v>700152.25580501626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B78">
+        <v>1762.0322934518504</v>
+      </c>
+      <c r="C78">
+        <v>583431.76099079091</v>
+      </c>
+      <c r="D78">
+        <v>527400.94828807283</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B79">
+        <v>1034.4438227360313</v>
+      </c>
+      <c r="C79">
+        <v>443774.07097124361</v>
+      </c>
+      <c r="D79">
+        <v>390438.00132461288</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B80">
+        <v>595.86459984165424</v>
+      </c>
+      <c r="C80">
+        <v>331239.29571562022</v>
+      </c>
+      <c r="D80">
+        <v>283781.92345908063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B81">
+        <v>336.86952569318998</v>
+      </c>
+      <c r="C81">
+        <v>242323.40159447814</v>
+      </c>
+      <c r="D81">
+        <v>202299.55102132255</v>
       </c>
     </row>
   </sheetData>

--- a/data/time_series/past_sc_cashflow_data.xlsx
+++ b/data/time_series/past_sc_cashflow_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RRQ1FYQ\Documents\UPS_MV\data\time_series\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4EECF6-9D72-46F7-AB86-F2F624DA5679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27690DA4-412D-4800-8AF3-0106852BCF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57710" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="1" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="15820" activeTab="2" xr2:uid="{D884DE58-9E6E-4B5F-AB9A-D4EA4714C804}"/>
   </bookViews>
   <sheets>
     <sheet name="2021" sheetId="3" r:id="rId1"/>
     <sheet name="2022" sheetId="4" r:id="rId2"/>
+    <sheet name="2023" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Year</t>
   </si>
@@ -1575,7 +1576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEA8073-4086-42C8-B404-E0F39423CB22}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -2721,4 +2722,1156 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2728D57D-37AE-437C-AE50-C94248E75E38}">
+  <dimension ref="A1:D81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B2">
+        <v>77846.880000000005</v>
+      </c>
+      <c r="C2">
+        <v>150067.7618867612</v>
+      </c>
+      <c r="D2">
+        <v>893244.52234809007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B3">
+        <v>375321.96</v>
+      </c>
+      <c r="C3">
+        <v>652189.70386090875</v>
+      </c>
+      <c r="D3">
+        <v>3385552.0942416741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B4">
+        <v>818519.29</v>
+      </c>
+      <c r="C4">
+        <v>1405435.8122873553</v>
+      </c>
+      <c r="D4">
+        <v>6591705.487235764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B5">
+        <v>1318267.68</v>
+      </c>
+      <c r="C5">
+        <v>2249949.172186533</v>
+      </c>
+      <c r="D5">
+        <v>9829412.1167093925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>46387</v>
+      </c>
+      <c r="B6">
+        <v>1851868.18</v>
+      </c>
+      <c r="C6">
+        <v>3176185.0790408938</v>
+      </c>
+      <c r="D6">
+        <v>13067104.602643413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>46752</v>
+      </c>
+      <c r="B7">
+        <v>2382479.7000000002</v>
+      </c>
+      <c r="C7">
+        <v>4138698.9288963252</v>
+      </c>
+      <c r="D7">
+        <v>16235101.558962604</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>47118</v>
+      </c>
+      <c r="B8">
+        <v>2910564.14</v>
+      </c>
+      <c r="C8">
+        <v>5095182.9684691736</v>
+      </c>
+      <c r="D8">
+        <v>19277921.261779893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>47483</v>
+      </c>
+      <c r="B9">
+        <v>3387924.58</v>
+      </c>
+      <c r="C9">
+        <v>6048736.1218665559</v>
+      </c>
+      <c r="D9">
+        <v>22206397.967894923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>47848</v>
+      </c>
+      <c r="B10">
+        <v>3781650.22</v>
+      </c>
+      <c r="C10">
+        <v>7001757.8972421223</v>
+      </c>
+      <c r="D10">
+        <v>25050295.643037103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>48213</v>
+      </c>
+      <c r="B11">
+        <v>4116432.62</v>
+      </c>
+      <c r="C11">
+        <v>7949823.1965242364</v>
+      </c>
+      <c r="D11">
+        <v>27812453.978251498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>48579</v>
+      </c>
+      <c r="B12">
+        <v>4435645.74</v>
+      </c>
+      <c r="C12">
+        <v>8871402.36902906</v>
+      </c>
+      <c r="D12">
+        <v>30484509.76319389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>48944</v>
+      </c>
+      <c r="B13">
+        <v>4719494.28</v>
+      </c>
+      <c r="C13">
+        <v>9751219.8051034398</v>
+      </c>
+      <c r="D13">
+        <v>33055314.697431654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>49309</v>
+      </c>
+      <c r="B14">
+        <v>4967300.1900000004</v>
+      </c>
+      <c r="C14">
+        <v>10596082.588185811</v>
+      </c>
+      <c r="D14">
+        <v>35506043.945944235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>49674</v>
+      </c>
+      <c r="B15">
+        <v>5207547.66</v>
+      </c>
+      <c r="C15">
+        <v>11408929.92353484</v>
+      </c>
+      <c r="D15">
+        <v>37857465.585880861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>50040</v>
+      </c>
+      <c r="B16">
+        <v>5423264.9199999999</v>
+      </c>
+      <c r="C16">
+        <v>12185260.034251103</v>
+      </c>
+      <c r="D16">
+        <v>40131106.384087749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>50405</v>
+      </c>
+      <c r="B17">
+        <v>5615188.29</v>
+      </c>
+      <c r="C17">
+        <v>12939158.622378085</v>
+      </c>
+      <c r="D17">
+        <v>42333197.007620141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>50770</v>
+      </c>
+      <c r="B18">
+        <v>5785851.2000000002</v>
+      </c>
+      <c r="C18">
+        <v>13672946.99463976</v>
+      </c>
+      <c r="D18">
+        <v>44472547.160179123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>51135</v>
+      </c>
+      <c r="B19">
+        <v>5927330.6600000001</v>
+      </c>
+      <c r="C19">
+        <v>14387760.179627614</v>
+      </c>
+      <c r="D19">
+        <v>46560771.674792446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>51501</v>
+      </c>
+      <c r="B20">
+        <v>6055790.4900000002</v>
+      </c>
+      <c r="C20">
+        <v>15083633.628544874</v>
+      </c>
+      <c r="D20">
+        <v>48578992.332065262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>51866</v>
+      </c>
+      <c r="B21">
+        <v>6165655.5899999999</v>
+      </c>
+      <c r="C21">
+        <v>15769622.961180741</v>
+      </c>
+      <c r="D21">
+        <v>50500742.462843902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>52231</v>
+      </c>
+      <c r="B22">
+        <v>6256318.9000000004</v>
+      </c>
+      <c r="C22">
+        <v>16455303.951919915</v>
+      </c>
+      <c r="D22">
+        <v>52312707.682628036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>52596</v>
+      </c>
+      <c r="B23">
+        <v>6315677.96</v>
+      </c>
+      <c r="C23">
+        <v>17116131.268193495</v>
+      </c>
+      <c r="D23">
+        <v>54021398.187091641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>52962</v>
+      </c>
+      <c r="B24">
+        <v>6342099.6600000001</v>
+      </c>
+      <c r="C24">
+        <v>17721066.160138026</v>
+      </c>
+      <c r="D24">
+        <v>55626927.518012106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>53327</v>
+      </c>
+      <c r="B25">
+        <v>6356267.5499999998</v>
+      </c>
+      <c r="C25">
+        <v>18279942.957298703</v>
+      </c>
+      <c r="D25">
+        <v>57123440.292451642</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>53692</v>
+      </c>
+      <c r="B26">
+        <v>6342662.8300000001</v>
+      </c>
+      <c r="C26">
+        <v>18807748.911265697</v>
+      </c>
+      <c r="D26">
+        <v>58503139.119926326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>54057</v>
+      </c>
+      <c r="B27">
+        <v>6294681.4800000004</v>
+      </c>
+      <c r="C27">
+        <v>19287486.234614551</v>
+      </c>
+      <c r="D27">
+        <v>59730143.003568374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>54423</v>
+      </c>
+      <c r="B28">
+        <v>6214540.0499999998</v>
+      </c>
+      <c r="C28">
+        <v>19717083.467986975</v>
+      </c>
+      <c r="D28">
+        <v>60797882.713201106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>54788</v>
+      </c>
+      <c r="B29">
+        <v>6099538.8399999999</v>
+      </c>
+      <c r="C29">
+        <v>20100763.355836984</v>
+      </c>
+      <c r="D29">
+        <v>61714853.536240473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>55153</v>
+      </c>
+      <c r="B30">
+        <v>5958957.96</v>
+      </c>
+      <c r="C30">
+        <v>20437780.779836498</v>
+      </c>
+      <c r="D30">
+        <v>62459690.436061032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="1">
+        <v>55518</v>
+      </c>
+      <c r="B31">
+        <v>5785385.3600000003</v>
+      </c>
+      <c r="C31">
+        <v>20718104.221399348</v>
+      </c>
+      <c r="D31">
+        <v>63000286.612817973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="1">
+        <v>55884</v>
+      </c>
+      <c r="B32">
+        <v>5571024.6399999997</v>
+      </c>
+      <c r="C32">
+        <v>20956832.521421291</v>
+      </c>
+      <c r="D32">
+        <v>63312081.307784118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="1">
+        <v>56249</v>
+      </c>
+      <c r="B33">
+        <v>5327926.49</v>
+      </c>
+      <c r="C33">
+        <v>21174713.029374417</v>
+      </c>
+      <c r="D33">
+        <v>63387999.418906763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="1">
+        <v>56614</v>
+      </c>
+      <c r="B34">
+        <v>5070520.6399999997</v>
+      </c>
+      <c r="C34">
+        <v>21365060.913511738</v>
+      </c>
+      <c r="D34">
+        <v>63198950.624290265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="1">
+        <v>56979</v>
+      </c>
+      <c r="B35">
+        <v>4802384.8600000003</v>
+      </c>
+      <c r="C35">
+        <v>21530521.68941129</v>
+      </c>
+      <c r="D35">
+        <v>62746199.053155288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="1">
+        <v>57345</v>
+      </c>
+      <c r="B36">
+        <v>4526688.55</v>
+      </c>
+      <c r="C36">
+        <v>21692769.465806767</v>
+      </c>
+      <c r="D36">
+        <v>62045019.286080353</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>57710</v>
+      </c>
+      <c r="B37">
+        <v>4246269.88</v>
+      </c>
+      <c r="C37">
+        <v>21878980.988597233</v>
+      </c>
+      <c r="D37">
+        <v>61053305.048510522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>58075</v>
+      </c>
+      <c r="B38">
+        <v>3964711.22</v>
+      </c>
+      <c r="C38">
+        <v>22104198.332288269</v>
+      </c>
+      <c r="D38">
+        <v>59757527.086442016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>58440</v>
+      </c>
+      <c r="B39">
+        <v>3686623.09</v>
+      </c>
+      <c r="C39">
+        <v>22381651.67835271</v>
+      </c>
+      <c r="D39">
+        <v>58199816.040773012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>58806</v>
+      </c>
+      <c r="B40">
+        <v>3414022.55</v>
+      </c>
+      <c r="C40">
+        <v>22675145.469674464</v>
+      </c>
+      <c r="D40">
+        <v>56451902.000081114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>59171</v>
+      </c>
+      <c r="B41">
+        <v>3148702.86</v>
+      </c>
+      <c r="C41">
+        <v>22732032.98119399</v>
+      </c>
+      <c r="D41">
+        <v>54556928.758270524</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>59536</v>
+      </c>
+      <c r="B42">
+        <v>2892684.47</v>
+      </c>
+      <c r="C42">
+        <v>22534458.159472145</v>
+      </c>
+      <c r="D42">
+        <v>52532720.961760052</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>59901</v>
+      </c>
+      <c r="B43">
+        <v>2647285.71</v>
+      </c>
+      <c r="C43">
+        <v>22363604.665689718</v>
+      </c>
+      <c r="D43">
+        <v>50403924.726559445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1">
+        <v>60267</v>
+      </c>
+      <c r="B44">
+        <v>2413447.91</v>
+      </c>
+      <c r="C44">
+        <v>22330261.995760202</v>
+      </c>
+      <c r="D44">
+        <v>48197819.356183551</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1">
+        <v>60632</v>
+      </c>
+      <c r="B45">
+        <v>2191770.9900000002</v>
+      </c>
+      <c r="C45">
+        <v>22100550.844067201</v>
+      </c>
+      <c r="D45">
+        <v>45946153.058519803</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1">
+        <v>60997</v>
+      </c>
+      <c r="B46">
+        <v>1982575.02</v>
+      </c>
+      <c r="C46">
+        <v>21418229.890828356</v>
+      </c>
+      <c r="D46">
+        <v>43674876.342994027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1">
+        <v>61362</v>
+      </c>
+      <c r="B47">
+        <v>1785939.87</v>
+      </c>
+      <c r="C47">
+        <v>20553577.285065316</v>
+      </c>
+      <c r="D47">
+        <v>41405062.419468939</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1">
+        <v>61728</v>
+      </c>
+      <c r="B48">
+        <v>1601771.88</v>
+      </c>
+      <c r="C48">
+        <v>19688490.50469986</v>
+      </c>
+      <c r="D48">
+        <v>39151886.09988264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1">
+        <v>62093</v>
+      </c>
+      <c r="B49">
+        <v>1429850.68</v>
+      </c>
+      <c r="C49">
+        <v>18824070.727937758</v>
+      </c>
+      <c r="D49">
+        <v>36921880.355809793</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1">
+        <v>62458</v>
+      </c>
+      <c r="B50">
+        <v>1269911.8500000001</v>
+      </c>
+      <c r="C50">
+        <v>17960880.781145781</v>
+      </c>
+      <c r="D50">
+        <v>34721597.241830997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1">
+        <v>62823</v>
+      </c>
+      <c r="B51">
+        <v>1121651.79</v>
+      </c>
+      <c r="C51">
+        <v>17100140.834045559</v>
+      </c>
+      <c r="D51">
+        <v>32559862.436105922</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1">
+        <v>63189</v>
+      </c>
+      <c r="B52">
+        <v>984748.5</v>
+      </c>
+      <c r="C52">
+        <v>16243803.499835158</v>
+      </c>
+      <c r="D52">
+        <v>30446504.337904565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>63554</v>
+      </c>
+      <c r="B53">
+        <v>858892.52</v>
+      </c>
+      <c r="C53">
+        <v>15393191.964602487</v>
+      </c>
+      <c r="D53">
+        <v>28387282.596024573</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>63919</v>
+      </c>
+      <c r="B54">
+        <v>743787.84</v>
+      </c>
+      <c r="C54">
+        <v>14549324.446472872</v>
+      </c>
+      <c r="D54">
+        <v>26384668.484331548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>64284</v>
+      </c>
+      <c r="B55">
+        <v>639144.06000000006</v>
+      </c>
+      <c r="C55">
+        <v>13713254.968848933</v>
+      </c>
+      <c r="D55">
+        <v>24441047.590040162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>64650</v>
+      </c>
+      <c r="B56">
+        <v>544653.18000000005</v>
+      </c>
+      <c r="C56">
+        <v>12886122.425983641</v>
+      </c>
+      <c r="D56">
+        <v>22558613.205489703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>65015</v>
+      </c>
+      <c r="B57">
+        <v>459975.16</v>
+      </c>
+      <c r="C57">
+        <v>12069176.904869145</v>
+      </c>
+      <c r="D57">
+        <v>20739475.076583736</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>65380</v>
+      </c>
+      <c r="B58">
+        <v>384729.61</v>
+      </c>
+      <c r="C58">
+        <v>11263794.123851562</v>
+      </c>
+      <c r="D58">
+        <v>18986003.026013166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>65745</v>
+      </c>
+      <c r="B59">
+        <v>318491.57</v>
+      </c>
+      <c r="C59">
+        <v>10471523.295119584</v>
+      </c>
+      <c r="D59">
+        <v>17300971.642626405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>66111</v>
+      </c>
+      <c r="B60">
+        <v>260784.8</v>
+      </c>
+      <c r="C60">
+        <v>9694088.2469958831</v>
+      </c>
+      <c r="D60">
+        <v>15687293.016577475</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>66476</v>
+      </c>
+      <c r="B61">
+        <v>211059.14</v>
+      </c>
+      <c r="C61">
+        <v>8933355.0752376206</v>
+      </c>
+      <c r="D61">
+        <v>14147977.767778847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>66841</v>
+      </c>
+      <c r="B62">
+        <v>168713.76</v>
+      </c>
+      <c r="C62">
+        <v>8191303.3377725799</v>
+      </c>
+      <c r="D62">
+        <v>12686119.636419913</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>67206</v>
+      </c>
+      <c r="B63">
+        <v>133117.1</v>
+      </c>
+      <c r="C63">
+        <v>7470016.3132153871</v>
+      </c>
+      <c r="D63">
+        <v>11304667.600606952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
+        <v>67572</v>
+      </c>
+      <c r="B64">
+        <v>103604.46</v>
+      </c>
+      <c r="C64">
+        <v>6771681.340528097</v>
+      </c>
+      <c r="D64">
+        <v>10006286.459590141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>67937</v>
+      </c>
+      <c r="B65">
+        <v>79493.98</v>
+      </c>
+      <c r="C65">
+        <v>6098549.593219813</v>
+      </c>
+      <c r="D65">
+        <v>8793286.47364562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="1">
+        <v>68302</v>
+      </c>
+      <c r="B66">
+        <v>60096.87</v>
+      </c>
+      <c r="C66">
+        <v>5453027.0975307738</v>
+      </c>
+      <c r="D66">
+        <v>7667574.5026816996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="1">
+        <v>68667</v>
+      </c>
+      <c r="B67">
+        <v>44738.62</v>
+      </c>
+      <c r="C67">
+        <v>4837714.9495050432</v>
+      </c>
+      <c r="D67">
+        <v>6630544.276771659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="1">
+        <v>69033</v>
+      </c>
+      <c r="B68">
+        <v>32778.379999999997</v>
+      </c>
+      <c r="C68">
+        <v>4255295.0394004285</v>
+      </c>
+      <c r="D68">
+        <v>5682940.3272194657</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>69398</v>
+      </c>
+      <c r="B69">
+        <v>23624.76</v>
+      </c>
+      <c r="C69">
+        <v>3708542.7086408772</v>
+      </c>
+      <c r="D69">
+        <v>4824806.615988981</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="1">
+        <v>69763</v>
+      </c>
+      <c r="B70">
+        <v>16743.830000000002</v>
+      </c>
+      <c r="C70">
+        <v>3200261.1237581572</v>
+      </c>
+      <c r="D70">
+        <v>4055350.7354451586</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="1">
+        <v>70128</v>
+      </c>
+      <c r="B71">
+        <v>11664.9</v>
+      </c>
+      <c r="C71">
+        <v>2732917.0565961082</v>
+      </c>
+      <c r="D71">
+        <v>3372676.3088405174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="1">
+        <v>70494</v>
+      </c>
+      <c r="B72">
+        <v>7985.3</v>
+      </c>
+      <c r="C72">
+        <v>2308243.8757492304</v>
+      </c>
+      <c r="D72">
+        <v>2773730.4597837292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="1">
+        <v>70859</v>
+      </c>
+      <c r="B73">
+        <v>5369.51</v>
+      </c>
+      <c r="C73">
+        <v>1927075.6295116972</v>
+      </c>
+      <c r="D73">
+        <v>2254379.9525247477</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="1">
+        <v>71224</v>
+      </c>
+      <c r="B74">
+        <v>3545.17</v>
+      </c>
+      <c r="C74">
+        <v>1589270.2004678622</v>
+      </c>
+      <c r="D74">
+        <v>1809470.3909825333</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="1">
+        <v>71589</v>
+      </c>
+      <c r="B75">
+        <v>2297.56</v>
+      </c>
+      <c r="C75">
+        <v>1293616.2331017731</v>
+      </c>
+      <c r="D75">
+        <v>1433080.634160406</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="1">
+        <v>71955</v>
+      </c>
+      <c r="B76">
+        <v>1461.23</v>
+      </c>
+      <c r="C76">
+        <v>1038071.2297752432</v>
+      </c>
+      <c r="D76">
+        <v>1118858.2638015014</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>72320</v>
+      </c>
+      <c r="B77">
+        <v>911.72</v>
+      </c>
+      <c r="C77">
+        <v>820257.33444551739</v>
+      </c>
+      <c r="D77">
+        <v>860272.64003378793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="1">
+        <v>72685</v>
+      </c>
+      <c r="B78">
+        <v>557.95000000000005</v>
+      </c>
+      <c r="C78">
+        <v>637509.4878073053</v>
+      </c>
+      <c r="D78">
+        <v>650773.92671308946</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="1">
+        <v>73050</v>
+      </c>
+      <c r="B79">
+        <v>334.77</v>
+      </c>
+      <c r="C79">
+        <v>486774.58880048123</v>
+      </c>
+      <c r="D79">
+        <v>483856.07935802185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="1">
+        <v>73415</v>
+      </c>
+      <c r="B80">
+        <v>196.87</v>
+      </c>
+      <c r="C80">
+        <v>364707.74464466877</v>
+      </c>
+      <c r="D80">
+        <v>353221.99453852663</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="1">
+        <v>73780</v>
+      </c>
+      <c r="B81">
+        <v>113.44</v>
+      </c>
+      <c r="C81">
+        <v>267789.07107430056</v>
+      </c>
+      <c r="D81">
+        <v>252919.51369087139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>